--- a/doc/接口协议.xlsx
+++ b/doc/接口协议.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17870"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="825" windowWidth="14805" windowHeight="7290"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="365">
   <si>
     <t>请求url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1382,13 +1382,61 @@
   </si>
   <si>
     <t>获取授权用户数据</t>
+  </si>
+  <si>
+    <t>新增权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit!AddPriv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name，parentId，category，app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限名称，父ID，权限类别，所属应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit!DelPriv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>privId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit!EditPriv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>privId,parentId,name,category,app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限Id，父ID，权限名称，权限类别，所属应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1813,6 +1861,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1860,7 +1911,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1893,9 +1944,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1928,6 +1996,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2104,13 +2189,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.875" customWidth="1"/>
     <col min="2" max="2" width="73.875" customWidth="1"/>
@@ -2121,7 +2206,7 @@
     <col min="7" max="7" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2140,7 +2225,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -2161,7 +2246,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>294</v>
       </c>
@@ -2176,7 +2261,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2199,7 +2284,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>110</v>
       </c>
@@ -2220,7 +2305,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -2235,7 +2320,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -2248,7 +2333,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>231</v>
       </c>
@@ -2269,7 +2354,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>232</v>
       </c>
@@ -2284,7 +2369,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -2299,7 +2384,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="15" customFormat="1">
+    <row r="11" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="23" t="s">
         <v>279</v>
       </c>
@@ -2316,7 +2401,7 @@
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" spans="1:7" s="15" customFormat="1">
+    <row r="12" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
         <v>280</v>
       </c>
@@ -2331,7 +2416,7 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>235</v>
       </c>
@@ -2350,7 +2435,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>237</v>
       </c>
@@ -2367,7 +2452,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
@@ -2388,7 +2473,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>283</v>
       </c>
@@ -2405,7 +2490,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>101</v>
       </c>
@@ -2426,7 +2511,7 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>303</v>
       </c>
@@ -2441,7 +2526,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
@@ -2462,7 +2547,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
@@ -2483,7 +2568,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
@@ -2504,7 +2589,7 @@
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>245</v>
       </c>
@@ -2523,7 +2608,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>40</v>
       </c>
@@ -2542,7 +2627,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>44</v>
       </c>
@@ -2563,7 +2648,7 @@
       </c>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
@@ -2580,7 +2665,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -2589,7 +2674,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>52</v>
       </c>
@@ -2608,7 +2693,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>57</v>
       </c>
@@ -2627,7 +2712,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>304</v>
       </c>
@@ -2646,7 +2731,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>63</v>
       </c>
@@ -2665,7 +2750,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>64</v>
       </c>
@@ -2684,7 +2769,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>65</v>
       </c>
@@ -2701,7 +2786,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>66</v>
       </c>
@@ -2720,7 +2805,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>67</v>
       </c>
@@ -2739,7 +2824,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>204</v>
       </c>
@@ -2758,7 +2843,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>205</v>
       </c>
@@ -2775,7 +2860,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>71</v>
       </c>
@@ -2794,7 +2879,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>198</v>
       </c>
@@ -2813,7 +2898,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>83</v>
       </c>
@@ -2834,7 +2919,7 @@
       </c>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>88</v>
       </c>
@@ -2853,7 +2938,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
         <v>96</v>
       </c>
@@ -2874,7 +2959,7 @@
       </c>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>109</v>
       </c>
@@ -2893,7 +2978,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>208</v>
       </c>
@@ -2910,7 +2995,7 @@
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>226</v>
       </c>
@@ -2929,7 +3014,7 @@
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>225</v>
       </c>
@@ -2946,7 +3031,7 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>257</v>
       </c>
@@ -2965,7 +3050,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>261</v>
       </c>
@@ -2982,7 +3067,7 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>298</v>
       </c>
@@ -2999,7 +3084,7 @@
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="1:7" ht="12.75" customHeight="1">
+    <row r="49" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
         <v>112</v>
       </c>
@@ -3018,7 +3103,7 @@
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1">
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="s">
         <v>266</v>
       </c>
@@ -3035,7 +3120,7 @@
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="s">
         <v>115</v>
       </c>
@@ -3054,7 +3139,7 @@
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>114</v>
       </c>
@@ -3073,7 +3158,7 @@
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
         <v>254</v>
       </c>
@@ -3090,7 +3175,7 @@
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>255</v>
       </c>
@@ -3107,7 +3192,7 @@
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
         <v>269</v>
       </c>
@@ -3124,7 +3209,7 @@
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>288</v>
       </c>
@@ -3145,7 +3230,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="15" customFormat="1">
+    <row r="57" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="23" t="s">
         <v>289</v>
       </c>
@@ -3162,7 +3247,7 @@
       <c r="F57" s="23"/>
       <c r="G57" s="23"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>134</v>
       </c>
@@ -3179,7 +3264,7 @@
       <c r="F58" s="9"/>
       <c r="G58" s="10"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
         <v>137</v>
       </c>
@@ -3196,7 +3281,7 @@
       <c r="F59" s="9"/>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
         <v>130</v>
       </c>
@@ -3215,7 +3300,7 @@
       <c r="F60" s="9"/>
       <c r="G60" s="10"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
         <v>127</v>
       </c>
@@ -3232,7 +3317,7 @@
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="10"/>
       <c r="B62" s="9"/>
       <c r="C62" s="10"/>
@@ -3241,7 +3326,7 @@
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
         <v>142</v>
       </c>
@@ -3260,7 +3345,7 @@
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="11" t="s">
         <v>143</v>
       </c>
@@ -3279,7 +3364,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
       <c r="B65" s="22"/>
       <c r="C65" s="10"/>
@@ -3288,7 +3373,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="11" t="s">
         <v>310</v>
       </c>
@@ -3303,7 +3388,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="43"/>
       <c r="B67" s="4"/>
       <c r="C67" s="43"/>
@@ -3312,7 +3397,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="43"/>
       <c r="B68" s="4"/>
       <c r="C68" s="43"/>
@@ -3321,7 +3406,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7" ht="44.25" customHeight="1">
+    <row r="69" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="46" t="s">
         <v>322</v>
       </c>
@@ -3332,7 +3417,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="1:7" ht="20.25" customHeight="1">
+    <row r="70" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="12" t="s">
         <v>323</v>
       </c>
@@ -3351,7 +3436,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" ht="20.25" customHeight="1">
+    <row r="71" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="12" t="s">
         <v>325</v>
       </c>
@@ -3368,7 +3453,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" ht="20.25" customHeight="1">
+    <row r="72" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>338</v>
       </c>
@@ -3382,7 +3467,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:7" ht="20.25" customHeight="1">
+    <row r="73" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
         <v>340</v>
       </c>
@@ -3396,7 +3481,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:7" ht="20.25" customHeight="1">
+    <row r="74" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
         <v>343</v>
       </c>
@@ -3410,7 +3495,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:7" ht="20.25" customHeight="1">
+    <row r="75" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>346</v>
       </c>
@@ -3424,7 +3509,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:7" ht="20.25" customHeight="1">
+    <row r="76" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>349</v>
       </c>
@@ -3438,7 +3523,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:7" ht="20.25" customHeight="1">
+    <row r="77" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
         <v>352</v>
       </c>
@@ -3452,25 +3537,68 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A78" s="4"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="12"/>
+    <row r="78" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="43" t="s">
+        <v>360</v>
+      </c>
+      <c r="B78" s="44" t="s">
+        <v>357</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="D78" t="s">
+        <v>359</v>
+      </c>
       <c r="E78" s="12"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A79" s="45" t="s">
+    <row r="79" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="B79" s="44" t="s">
+        <v>354</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="D79" t="s">
+        <v>356</v>
+      </c>
+      <c r="E79" s="12"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+    </row>
+    <row r="80" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="43" t="s">
+        <v>364</v>
+      </c>
+      <c r="B80" s="44" t="s">
+        <v>361</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D80" t="s">
+        <v>363</v>
+      </c>
+      <c r="E80" s="12"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+    </row>
+    <row r="81" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B79" s="45"/>
-      <c r="C79" s="45"/>
-      <c r="D79" s="45"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A79:D79"/>
+    <mergeCell ref="A81:D81"/>
     <mergeCell ref="A69:C69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3487,13 +3615,13 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="117.875" customWidth="1"/>
     <col min="2" max="2" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>162</v>
       </c>
@@ -3501,7 +3629,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>161</v>
       </c>
@@ -3509,7 +3637,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -3517,7 +3645,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>159</v>
       </c>
@@ -3525,7 +3653,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>158</v>
       </c>
@@ -3533,7 +3661,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>170</v>
       </c>
@@ -3541,7 +3669,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -3549,7 +3677,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -3557,7 +3685,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -3565,12 +3693,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -3578,7 +3706,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>152</v>
       </c>
@@ -3586,7 +3714,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>151</v>
       </c>
@@ -3594,7 +3722,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>150</v>
       </c>
@@ -3602,7 +3730,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -3610,7 +3738,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>148</v>
       </c>
@@ -3618,7 +3746,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>147</v>
       </c>
@@ -3626,7 +3754,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>146</v>
       </c>
@@ -3648,13 +3776,13 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="75.875" customWidth="1"/>
     <col min="2" max="2" width="51.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>193</v>
       </c>
@@ -3662,7 +3790,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
         <v>188</v>
       </c>
@@ -3670,12 +3798,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
         <v>190</v>
       </c>
@@ -3683,42 +3811,42 @@
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
         <v>202</v>
       </c>
@@ -3726,12 +3854,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>218</v>
       </c>
@@ -3751,10 +3879,13 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="33.75" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:12" ht="30.75" customHeight="1">
+    <row r="1" spans="2:12" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="28" t="s">
         <v>316</v>
       </c>
@@ -3775,7 +3906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="29.25" customHeight="1">
+    <row r="3" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="31">
         <v>4</v>
       </c>
@@ -3794,7 +3925,7 @@
       <c r="K3" s="35"/>
       <c r="L3" s="36"/>
     </row>
-    <row r="4" spans="2:12" ht="35.25" customHeight="1">
+    <row r="4" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="37"/>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -3809,7 +3940,7 @@
       <c r="K4" s="38"/>
       <c r="L4" s="39"/>
     </row>
-    <row r="5" spans="2:12" ht="36.75" customHeight="1">
+    <row r="5" spans="2:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="40"/>
       <c r="C5" s="27">
         <v>2</v>
@@ -3826,7 +3957,7 @@
       <c r="K5" s="35"/>
       <c r="L5" s="36"/>
     </row>
-    <row r="6" spans="2:12" ht="42" customHeight="1">
+    <row r="6" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="37"/>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
@@ -3843,7 +3974,7 @@
       <c r="K6" s="38"/>
       <c r="L6" s="39"/>
     </row>
-    <row r="7" spans="2:12" ht="32.25" customHeight="1">
+    <row r="7" spans="2:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="31"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -3858,7 +3989,7 @@
       <c r="K7" s="27"/>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="2:12" ht="41.25" customHeight="1">
+    <row r="8" spans="2:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="37"/>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
@@ -3875,7 +4006,7 @@
       </c>
       <c r="L8" s="39"/>
     </row>
-    <row r="9" spans="2:12" ht="38.25" customHeight="1">
+    <row r="9" spans="2:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="40"/>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
@@ -3892,7 +4023,7 @@
       <c r="K9" s="35"/>
       <c r="L9" s="36"/>
     </row>
-    <row r="10" spans="2:12" ht="39.75" customHeight="1">
+    <row r="10" spans="2:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="37"/>
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
@@ -3907,7 +4038,7 @@
       <c r="K10" s="38"/>
       <c r="L10" s="39"/>
     </row>
-    <row r="11" spans="2:12" ht="41.25" customHeight="1">
+    <row r="11" spans="2:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="31">
         <v>7</v>
       </c>
@@ -3926,7 +4057,7 @@
       </c>
       <c r="L11" s="36"/>
     </row>
-    <row r="12" spans="2:12" ht="44.25" customHeight="1" thickBot="1">
+    <row r="12" spans="2:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="33">
         <v>10</v>
       </c>

--- a/doc/接口协议.xlsx
+++ b/doc/接口协议.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="369">
   <si>
     <t>请求url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1429,6 +1429,22 @@
   </si>
   <si>
     <t>编辑权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit!SearchPriv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2189,10 +2205,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" topLeftCell="C67" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3588,17 +3604,34 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="45" t="s">
+    <row r="81" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="43" t="s">
+        <v>365</v>
+      </c>
+      <c r="B81" s="44" t="s">
+        <v>366</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="D81" t="s">
+        <v>368</v>
+      </c>
+      <c r="E81" s="12"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+    </row>
+    <row r="82" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B81" s="45"/>
-      <c r="C81" s="45"/>
-      <c r="D81" s="45"/>
+      <c r="B82" s="45"/>
+      <c r="C82" s="45"/>
+      <c r="D82" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A81:D81"/>
+    <mergeCell ref="A82:D82"/>
     <mergeCell ref="A69:C69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/接口协议.xlsx
+++ b/doc/接口协议.xlsx
@@ -1392,14 +1392,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name，parentId，category，app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限名称，父ID，权限类别，所属应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>limit!DelPriv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1420,14 +1412,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>privId,parentId,name,category,app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限Id，父ID，权限名称，权限类别，所属应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>编辑权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1440,11 +1424,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限名称</t>
+    <t>name，pagesize，pageindex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限名称，每页的条数，第几页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限Id，父ID，权限名称，所属应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限名称，父ID，所属应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name，parentId，app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>privId,parentId,name,app</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1759,7 +1759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1866,6 +1866,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2207,8 +2210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C67" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3555,16 +3558,16 @@
     </row>
     <row r="78" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="43" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B78" s="44" t="s">
+        <v>355</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="D78" t="s">
         <v>357</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="D78" t="s">
-        <v>359</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="4"/>
@@ -3578,10 +3581,10 @@
         <v>354</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="D79" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="4"/>
@@ -3589,16 +3592,16 @@
     </row>
     <row r="80" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="43" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B80" s="44" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D80" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="4"/>
@@ -3606,16 +3609,16 @@
     </row>
     <row r="81" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="43" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>367</v>
-      </c>
-      <c r="D81" t="s">
-        <v>368</v>
+        <v>363</v>
+      </c>
+      <c r="D81" s="47" t="s">
+        <v>364</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="4"/>

--- a/doc/接口协议.xlsx
+++ b/doc/接口协议.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="371">
   <si>
     <t>请求url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1445,6 +1445,14 @@
   </si>
   <si>
     <t>privId,parentId,name,app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取权限数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit!getCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1861,14 +1869,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2208,10 +2216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="B94" sqref="B94"/>
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3426,11 +3434,11 @@
       <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="46" t="s">
+      <c r="A69" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="B69" s="46"/>
-      <c r="C69" s="46"/>
+      <c r="B69" s="47"/>
+      <c r="C69" s="47"/>
       <c r="D69" s="4"/>
       <c r="E69" s="12"/>
       <c r="F69" s="4"/>
@@ -3617,24 +3625,37 @@
       <c r="C81" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="D81" s="47" t="s">
+      <c r="D81" s="45" t="s">
         <v>364</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="45" t="s">
+    <row r="82" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="43" t="s">
+        <v>369</v>
+      </c>
+      <c r="B82" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="45"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+    </row>
+    <row r="83" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B82" s="45"/>
-      <c r="C82" s="45"/>
-      <c r="D82" s="45"/>
+      <c r="B83" s="46"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A83:D83"/>
     <mergeCell ref="A69:C69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/接口协议.xlsx
+++ b/doc/接口协议.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="369">
   <si>
     <t>请求url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1445,14 +1445,6 @@
   </si>
   <si>
     <t>privId,parentId,name,app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取权限数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit!getCount</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1869,14 +1861,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2216,10 +2208,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+      <selection activeCell="B94" sqref="B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3434,11 +3426,11 @@
       <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="47" t="s">
+      <c r="A69" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="B69" s="47"/>
-      <c r="C69" s="47"/>
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
       <c r="D69" s="4"/>
       <c r="E69" s="12"/>
       <c r="F69" s="4"/>
@@ -3625,37 +3617,24 @@
       <c r="C81" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="D81" s="45" t="s">
+      <c r="D81" s="47" t="s">
         <v>364</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="43" t="s">
-        <v>369</v>
-      </c>
-      <c r="B82" s="44" t="s">
-        <v>370</v>
-      </c>
-      <c r="C82" s="12"/>
+    <row r="82" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B82" s="45"/>
+      <c r="C82" s="45"/>
       <c r="D82" s="45"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
-    </row>
-    <row r="83" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B83" s="46"/>
-      <c r="C83" s="46"/>
-      <c r="D83" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A82:D82"/>
     <mergeCell ref="A69:C69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/接口协议.xlsx
+++ b/doc/接口协议.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="390">
   <si>
     <t>请求url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -703,728 +703,762 @@
     <t>friend!addFriend</t>
   </si>
   <si>
+    <t>friend!delFriend</t>
+  </si>
+  <si>
+    <t>group!joinGroup</t>
+  </si>
+  <si>
+    <t>group!leftGroup</t>
+  </si>
+  <si>
+    <t>subLocation</t>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/map!getLocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map!getLocation</t>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/fun!getSysTipVoice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid,status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、部门数据返回增加组织数据。数据拉直返回。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、增加修改群名称接口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、群成员接口返回数据不要id，须返回所有群成员对象属性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6、地图接口增加获取所有人和获取所有好友扩展。如果是这两个，targetId去掉或为0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7、修改个人设置。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、群组列表接口返回数据须改为我建的群组和我加入的群组。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8、联系人接口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/group!groupList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11、返回字段说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取群组列表（我加入的和我建的）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":-1/0/1, "text":""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增groupListWithAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12、群信息群列表接口返回数据增加创建者对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web前端可能要做调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询群成员(仅返回id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询群成员(返回成员数据)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群组id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/group!listGroupMemebersData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改群名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupid,groupname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群id,新的群名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account、friend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13、同时添加多个好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9、权限功能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10、添加返回所有不是好友数据的接口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增listGroupMembersData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web前端可能要做调整,调整群聊targetid为GID(已调整)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/group!joinGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14、建群小灰条</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、加入、退出、转移群接口bug查找。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/group!transferGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/branch!getBranchTree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/group!changeGroupName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/group!shutUpGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":-1/0/1,"text":}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解除群全员禁言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员禁言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupid,userid(可不传，不传表示全员解禁)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群id,[用户id]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群id，[用户id]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/group!createGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆验证app使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆验证web使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account、userpwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/system!loginForWeb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人设置信息保存（web端）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/member!updateMemberInfoForWeb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人设置信息保存（app端）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/member!updateMemberInfoForApp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid,email,mobile、phone、addredss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id、邮箱、手机、电话、地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/group!groupInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/branch!getBranchTreeAndMember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid, groupids</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定是否存在好友关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/friend!getMemberFriends</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/friend!getFriendsRelation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid,friendid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id,好友id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":-1/0/1,"text":"true"/"false"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/fun!setMsgTop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid,topid,toptype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id，置顶id，置顶类型(1群,2人)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置消息置顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取消息置顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询群禁言状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/group!unShutUpGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询群禁言成员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/fun!getMsgTop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/group!getShutUpGroupStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/fun!getNotRecieveMsg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取消息免打扰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupid、userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群id、用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消置顶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/fun!cancelMsgTop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/group!leftGroup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/system!login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/system!freeLandingForWeb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/system!freeLandingForApp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/group!listGroupMemebers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免登陆接口web端(必须用post提交)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>免登陆接口app端(必须用post提交)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>branchId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account、newpwd、comparepwd、[oldpwd]（app端要多加这个textcode）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有用户信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/member!getOneOfMember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/member!getAllMemberInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/upload!uploadUserLogo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传头像(裁剪)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传头像(非裁剪)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid,file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id,文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/upload!uploadUserLogoNotCut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/upload!secUserLogos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证旧密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/system!requestText</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/system!valideOldPwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oldpwd、accout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询群在线人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/group!getShutUpGroupMember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/group!getGroupOnLineMember</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取用户在线状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检测单用户在线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/member!searchUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/member!getAllMemberOnLineStatus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[userids]可选参数，传用户id组，不传表示全部用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid,position,fullname,sex,email,phone,sign</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id、职位Id,全名，性别、email、电话、个人签名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取所有的职位信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupid,userid(可不传,不传表示全员禁言)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid, groupid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id,群id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":1/0,"text":1禁言，0非禁言}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ｘ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户id, 纬度，经度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/map!subLocation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身id，目标id（群组id/或好友id）,1是群组,2是单好友，3所有人，4所有好友(3，4targetId传0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid, targetid, type,isInit(可选参数，表示是否显示超时坐标90,180)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userid, latitude, longitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以下是统一验证系统的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取appId，和secret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/branch!getPostion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置appId,secret,callbackUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/auth!getAppIDAndSecret</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/auth!setAppIDAndSecretAndUrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appId,secret,url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":200/500, text{appid,secret}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"code":200/500, text:"OK/FAIL/ERROR"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/userservice!getToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/friend!addFriend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/group!groupListWithAction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTempTokenSceneOne</t>
+  </si>
+  <si>
+    <t>getTempTokenSceneTwo</t>
+  </si>
+  <si>
+    <t>场景一取临时令牌</t>
+  </si>
+  <si>
+    <t>appId</t>
+  </si>
+  <si>
+    <t>场景二取临时令牌</t>
+  </si>
+  <si>
+    <t>reqAuthorizeOne</t>
+  </si>
+  <si>
+    <t>unAuthToken，userName，userPwd，appId，info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景一登陆并授权，返回授权临时令牌</t>
+  </si>
+  <si>
+    <t>appId，unAuthToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景二授权</t>
+  </si>
+  <si>
+    <t>getRealToken</t>
+  </si>
+  <si>
+    <t>secret，authToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取访问令牌</t>
+  </si>
+  <si>
+    <t>getAuthResource</t>
+  </si>
+  <si>
+    <t>获取授权用户数据</t>
+  </si>
+  <si>
+    <t>新增权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit!AddPriv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit!DelPriv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>privId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit!EditPriv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit!SearchPriv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name，pagesize，pageindex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限Id，父ID，权限名称，所属应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限名称，父ID，所属应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name，parentId，app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>privId,parentId,name,app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取权限数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit!getCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reqAuthorizeTwo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>&lt;%=request.getContextPath() %&gt;/friend!delFriend</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>friend!delFriend</t>
-  </si>
-  <si>
-    <t>group!joinGroup</t>
-  </si>
-  <si>
-    <t>group!leftGroup</t>
-  </si>
-  <si>
-    <t>subLocation</t>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/map!getLocation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>map!getLocation</t>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/fun!getSysTipVoice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid,status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2、部门数据返回增加组织数据。数据拉直返回。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、增加修改群名称接口。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、群成员接口返回数据不要id，须返回所有群成员对象属性。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6、地图接口增加获取所有人和获取所有好友扩展。如果是这两个，targetId去掉或为0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7、修改个人设置。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、群组列表接口返回数据须改为我建的群组和我加入的群组。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8、联系人接口。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/group!groupList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11、返回字段说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取群组列表（我加入的和我建的）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":-1/0/1, "text":""}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增groupListWithAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12、群信息群列表接口返回数据增加创建者对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>web前端可能要做调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询群成员(仅返回id)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询群成员(返回成员数据)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群组id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/group!listGroupMemebersData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改群名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupid,groupname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群id,新的群名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account、friend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13、同时添加多个好友</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9、权限功能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10、添加返回所有不是好友数据的接口。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增listGroupMembersData</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>web前端可能要做调整,调整群聊targetid为GID(已调整)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/group!joinGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14、建群小灰条</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、加入、退出、转移群接口bug查找。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/group!transferGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/branch!getBranchTree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/group!changeGroupName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/group!shutUpGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":-1/0/1,"text":}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解除群全员禁言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群成员禁言</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupid,userid(可不传，不传表示全员解禁)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群id,[用户id]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群id，[用户id]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/group!createGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆验证app使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆验证web使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account、userpwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/system!loginForWeb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人设置信息保存（web端）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/member!updateMemberInfoForWeb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个人设置信息保存（app端）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/member!updateMemberInfoForApp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid,email,mobile、phone、addredss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id、邮箱、手机、电话、地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/group!groupInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/branch!getBranchTreeAndMember</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid, groupids</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>确定是否存在好友关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/friend!getMemberFriends</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/friend!getFriendsRelation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid,friendid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id,好友id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":-1/0/1,"text":"true"/"false"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/fun!setMsgTop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid,topid,toptype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id，置顶id，置顶类型(1群,2人)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置消息置顶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取消息置顶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询群禁言状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/group!unShutUpGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询群禁言成员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/fun!getMsgTop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/group!getShutUpGroupStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/fun!getNotRecieveMsg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取消息免打扰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupid、userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群id、用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消置顶</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/fun!cancelMsgTop</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/group!leftGroup</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/system!login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/system!freeLandingForWeb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/system!freeLandingForApp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/group!listGroupMemebers</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免登陆接口web端(必须用post提交)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>免登陆接口app端(必须用post提交)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>branchId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>account、newpwd、comparepwd、[oldpwd]（app端要多加这个textcode）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取所有用户信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/member!getOneOfMember</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/member!getAllMemberInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/upload!uploadUserLogo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传头像(裁剪)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上传头像(非裁剪)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid,file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id,文件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/upload!uploadUserLogoNotCut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/upload!secUserLogos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>验证旧密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/system!requestText</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/system!valideOldPwd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>oldpwd、accout</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查询群在线人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/group!getShutUpGroupMember</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/group!getGroupOnLineMember</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取用户在线状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>检测单用户在线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/member!searchUser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/member!getAllMemberOnLineStatus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[userids]可选参数，传用户id组，不传表示全部用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid,position,fullname,sex,email,phone,sign</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id、职位Id,全名，性别、email、电话、个人签名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取所有的职位信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>groupid,userid(可不传,不传表示全员禁言)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid, groupid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id,群id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":1/0,"text":1禁言，0非禁言}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ｘ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户id, 纬度，经度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/map!subLocation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自身id，目标id（群组id/或好友id）,1是群组,2是单好友，3所有人，4所有好友(3，4targetId传0)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid, targetid, type,isInit(可选参数，表示是否显示超时坐标90,180)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>userid, latitude, longitude</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>以下是统一验证系统的接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取appId，和secret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/branch!getPostion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设置appId,secret,callbackUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/auth!getAppIDAndSecret</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/auth!setAppIDAndSecretAndUrl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appId,secret,url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":200/500, text{appid,secret}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"code":200/500, text:"OK/FAIL/ERROR"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/userservice!getToken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/friend!addFriend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/group!groupListWithAction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getTempTokenSceneOne</t>
-  </si>
-  <si>
-    <t>getTempTokenSceneTwo</t>
-  </si>
-  <si>
-    <t>场景一取临时令牌</t>
-  </si>
-  <si>
-    <t>appId</t>
-  </si>
-  <si>
-    <t>场景二取临时令牌</t>
-  </si>
-  <si>
-    <t>reqAuthorizeOne</t>
-  </si>
-  <si>
-    <t>unAuthToken，userName，userPwd，appId，info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景一登陆并授权，返回授权临时令牌</t>
-  </si>
-  <si>
-    <t>reqAuthorizeTwo</t>
-  </si>
-  <si>
-    <t>appId，unAuthToken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>场景二授权</t>
-  </si>
-  <si>
-    <t>getRealToken</t>
-  </si>
-  <si>
-    <t>secret，authToken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取访问令牌</t>
-  </si>
-  <si>
-    <t>getAuthResource</t>
-  </si>
-  <si>
-    <t>visitToken</t>
-  </si>
-  <si>
-    <t>获取授权用户数据</t>
-  </si>
-  <si>
-    <t>新增权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit!AddPriv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit!DelPriv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>privId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit!EditPriv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit!SearchPriv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name，pagesize，pageindex</t>
+    <t>获取应用信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appinfoconfig!getAppInfo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1432,27 +1466,71 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>权限Id，父ID，权限名称，所属应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限名称，父ID，所属应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name，parentId，app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>privId,parentId,name,app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取权限数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit!getCount</t>
+    <t>每页的条数，第几页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appinfoconfig!updateAppInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加应用信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appId，secert，callbackurl，apptime，appname，isopen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appinfoconfig!DelApp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除应用信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appinfoconfig!EditApp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id，appId，secert，callbackurl，apptime，appname，isopen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id，应用id，appsecret，backurl，操作日期，应用名称，状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appinfoconfig!SearchAppName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pagesize，pageindex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppName，pagesize，pageindex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用名称，每页的条数，第几页</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2216,17 +2294,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G83"/>
+  <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.875" customWidth="1"/>
     <col min="2" max="2" width="73.875" customWidth="1"/>
-    <col min="3" max="3" width="73.375" customWidth="1"/>
+    <col min="3" max="3" width="61.875" customWidth="1"/>
     <col min="4" max="4" width="102.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="49.25" customWidth="1"/>
     <col min="6" max="6" width="81" customWidth="1"/>
@@ -2257,7 +2335,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>3</v>
@@ -2275,13 +2353,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>297</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -2319,7 +2397,7 @@
         <v>167</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>111</v>
@@ -2362,7 +2440,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>163</v>
@@ -2383,13 +2461,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>232</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>233</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -2401,7 +2479,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -2413,16 +2491,16 @@
     </row>
     <row r="11" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B11" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C11" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="D11" s="23" t="s">
         <v>274</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>275</v>
       </c>
       <c r="E11" s="24"/>
       <c r="F11" s="25"/>
@@ -2430,13 +2508,13 @@
     </row>
     <row r="12" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B12" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="C12" s="23" t="s">
         <v>276</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>277</v>
       </c>
       <c r="D12" s="23"/>
       <c r="E12" s="24"/>
@@ -2445,16 +2523,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>236</v>
-      </c>
       <c r="C13" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>308</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>309</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>12</v>
@@ -2464,16 +2542,16 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>239</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>240</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
@@ -2484,10 +2562,10 @@
         <v>20</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>55</v>
@@ -2502,16 +2580,16 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="C16" s="6" t="s">
-        <v>286</v>
-      </c>
       <c r="D16" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
@@ -2522,7 +2600,7 @@
         <v>101</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>102</v>
@@ -2540,13 +2618,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B18" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>307</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
@@ -2558,10 +2636,10 @@
         <v>31</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>104</v>
@@ -2579,7 +2657,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>178</v>
+        <v>369</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>24</v>
@@ -2600,7 +2678,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>35</v>
@@ -2618,19 +2696,19 @@
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" s="6" t="s">
         <v>249</v>
-      </c>
-      <c r="E22" s="6" t="s">
-        <v>250</v>
       </c>
       <c r="F22" s="8"/>
       <c r="G22" s="6"/>
@@ -2640,7 +2718,7 @@
         <v>40</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>41</v>
@@ -2659,7 +2737,7 @@
         <v>44</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>41</v>
@@ -2683,7 +2761,7 @@
         <v>53</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D25" s="6" t="s">
         <v>48</v>
@@ -2706,7 +2784,7 @@
         <v>52</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>54</v>
@@ -2741,7 +2819,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>60</v>
@@ -2763,10 +2841,10 @@
         <v>63</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>73</v>
@@ -2782,7 +2860,7 @@
         <v>64</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>74</v>
@@ -2801,7 +2879,7 @@
         <v>65</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>74</v>
@@ -2853,16 +2931,16 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>91</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>93</v>
@@ -2872,16 +2950,16 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>91</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="9"/>
@@ -2892,7 +2970,7 @@
         <v>71</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>78</v>
@@ -2908,19 +2986,19 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>198</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>335</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>199</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>55</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
@@ -2951,7 +3029,7 @@
         <v>88</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>90</v>
@@ -2991,10 +3069,10 @@
         <v>109</v>
       </c>
       <c r="B42" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>241</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>242</v>
       </c>
       <c r="D42" s="10" t="s">
         <v>107</v>
@@ -3007,16 +3085,16 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C43" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B43" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C43" s="10" t="s">
+      <c r="D43" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>210</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="9"/>
@@ -3024,35 +3102,35 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B44" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>311</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>223</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>228</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>224</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="9"/>
@@ -3060,35 +3138,35 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="E46" s="5" t="s">
         <v>314</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>315</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C47" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>259</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>260</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="9"/>
@@ -3096,16 +3174,16 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B48" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="D48" s="10" t="s">
         <v>301</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>302</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="9"/>
@@ -3132,16 +3210,16 @@
     </row>
     <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C50" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="B50" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="C50" s="13" t="s">
+      <c r="D50" s="13" t="s">
         <v>267</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>268</v>
       </c>
       <c r="E50" s="14"/>
       <c r="F50" s="13"/>
@@ -3152,10 +3230,10 @@
         <v>115</v>
       </c>
       <c r="B51" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>185</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>186</v>
       </c>
       <c r="D51" s="13" t="s">
         <v>145</v>
@@ -3174,7 +3252,7 @@
         <v>121</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D52" s="9" t="s">
         <v>113</v>
@@ -3187,16 +3265,16 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B53" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C53" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>253</v>
       </c>
       <c r="E53" s="5"/>
       <c r="F53" s="9"/>
@@ -3204,16 +3282,16 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>255</v>
-      </c>
-      <c r="B54" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>256</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="9"/>
@@ -3221,16 +3299,16 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B55" s="9" t="s">
-        <v>270</v>
-      </c>
       <c r="C55" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D55" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>253</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55" s="9"/>
@@ -3238,10 +3316,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C56" s="10" t="s">
         <v>123</v>
@@ -3259,16 +3337,16 @@
     </row>
     <row r="57" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="C57" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="B57" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="C57" s="23" t="s">
+      <c r="D57" s="23" t="s">
         <v>290</v>
-      </c>
-      <c r="D57" s="23" t="s">
-        <v>291</v>
       </c>
       <c r="E57" s="24"/>
       <c r="F57" s="23"/>
@@ -3313,7 +3391,7 @@
         <v>130</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>131</v>
@@ -3358,13 +3436,13 @@
         <v>142</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D63" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>141</v>
@@ -3377,13 +3455,13 @@
         <v>143</v>
       </c>
       <c r="B64" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>144</v>
@@ -3402,13 +3480,13 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C66" s="11" t="s">
         <v>310</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C66" s="11" t="s">
-        <v>311</v>
       </c>
       <c r="D66" s="4"/>
       <c r="E66" s="12"/>
@@ -3435,7 +3513,7 @@
     </row>
     <row r="69" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="47" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B69" s="47"/>
       <c r="C69" s="47"/>
@@ -3446,49 +3524,49 @@
     </row>
     <row r="70" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="12" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B70" s="44" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C70" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D70" s="12" t="s">
+        <v>329</v>
+      </c>
+      <c r="E70" s="12" t="s">
         <v>330</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>331</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
     <row r="71" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="12" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B71" s="44" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D71" s="4"/>
       <c r="E71" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
     <row r="72" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B72" s="44" t="s">
+        <v>335</v>
+      </c>
+      <c r="C72" s="12" t="s">
         <v>338</v>
-      </c>
-      <c r="B72" s="44" t="s">
-        <v>336</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>339</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="4"/>
@@ -3496,13 +3574,13 @@
     </row>
     <row r="73" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B73" s="44" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C73" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="4"/>
@@ -3510,13 +3588,13 @@
     </row>
     <row r="74" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B74" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>341</v>
-      </c>
-      <c r="C74" s="12" t="s">
-        <v>342</v>
       </c>
       <c r="E74" s="12"/>
       <c r="F74" s="4"/>
@@ -3524,13 +3602,13 @@
     </row>
     <row r="75" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B75" s="44" t="s">
-        <v>344</v>
+        <v>367</v>
       </c>
       <c r="C75" s="12" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="4"/>
@@ -3538,13 +3616,13 @@
     </row>
     <row r="76" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B76" s="44" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="4"/>
@@ -3552,13 +3630,13 @@
     </row>
     <row r="77" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B77" s="44" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="4"/>
@@ -3566,16 +3644,16 @@
     </row>
     <row r="78" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="43" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B78" s="44" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D78" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="4"/>
@@ -3583,16 +3661,16 @@
     </row>
     <row r="79" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="43" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B79" s="44" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D79" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="4"/>
@@ -3600,16 +3678,16 @@
     </row>
     <row r="80" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="43" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B80" s="44" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D80" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="4"/>
@@ -3617,16 +3695,16 @@
     </row>
     <row r="81" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="43" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D81" s="45" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="4"/>
@@ -3634,10 +3712,10 @@
     </row>
     <row r="82" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="43" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="45"/>
@@ -3645,17 +3723,100 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="46" t="s">
+    <row r="83" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="43" t="s">
+        <v>370</v>
+      </c>
+      <c r="B83" s="44" t="s">
+        <v>371</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="D83" s="45" t="s">
+        <v>373</v>
+      </c>
+      <c r="E83" s="12"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+    </row>
+    <row r="84" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="B84" s="44" t="s">
+        <v>374</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D84" s="45"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+    </row>
+    <row r="85" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="43" t="s">
+        <v>378</v>
+      </c>
+      <c r="B85" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="D85" s="45" t="s">
+        <v>380</v>
+      </c>
+      <c r="E85" s="12"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+    </row>
+    <row r="86" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="43" t="s">
+        <v>382</v>
+      </c>
+      <c r="B86" s="44" t="s">
+        <v>381</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D86" s="45" t="s">
+        <v>384</v>
+      </c>
+      <c r="E86" s="12"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+    </row>
+    <row r="87" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="43" t="s">
+        <v>386</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="D87" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="E87" s="12"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+    </row>
+    <row r="88" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B83" s="46"/>
-      <c r="C83" s="46"/>
-      <c r="D83" s="46"/>
+      <c r="B88" s="46"/>
+      <c r="C88" s="46"/>
+      <c r="D88" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A88:D88"/>
     <mergeCell ref="A69:C69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3776,7 +3937,7 @@
         <v>151</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -3784,7 +3945,7 @@
         <v>150</v>
       </c>
       <c r="B14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -3792,7 +3953,7 @@
         <v>149</v>
       </c>
       <c r="B15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -3808,7 +3969,7 @@
         <v>147</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
@@ -3816,7 +3977,7 @@
         <v>146</v>
       </c>
       <c r="B18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -3841,84 +4002,84 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3944,7 +4105,7 @@
     <row r="1" spans="2:12" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="28" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C2" s="29">
         <v>2</v>

--- a/doc/接口协议.xlsx
+++ b/doc/接口协议.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17870"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="825" windowWidth="14805" windowHeight="7290"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="411">
   <si>
     <t>请求url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1394,19 +1394,151 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>limit!EditPriv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name，pagesize，pageindex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限Id，父ID，权限名称，所属应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限名称，父ID，所属应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name，parentId，app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>privId,parentId,name,app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取权限数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit!getCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reqAuthorizeTwo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/friend!delFriend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取应用信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appinfoconfig!getAppInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appinfoconfig!updateAppInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加应用信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appinfoconfig!DelApp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除应用信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appinfoconfig!EditApp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id，appId，secert，callbackurl，apptime，appname，isopen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id，应用id，appsecret，backurl，操作日期，应用名称，状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appinfoconfig!SearchAppName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pagesize，pageindex，userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每页的条数，第几页，用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appId，secert，callbackurl，appname，isopen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用id，应用密钥，链接，应用名，是否开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppName，pagesize，pageindex，userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用名称，每页的条数，第几页，用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appinfoconfig!getAppName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取应用名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>删除权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>limit!EditPriv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索权限</t>
+    <t>权限名称，每页的条数，第几页（当权限名称为空时，返回全部权限）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1414,26 +1546,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name，pagesize，pageindex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限Id，父ID，权限名称，所属应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限名称，父ID，所属应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name，parentId，app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>privId,parentId,name,app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取权限数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1442,95 +1554,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reqAuthorizeTwo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visitToken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/friend!delFriend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取应用信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appinfoconfig!getAppInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限名称，每页的条数，第几页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每页的条数，第几页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appinfoconfig!updateAppInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加应用信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appId，secert，callbackurl，apptime，appname，isopen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appinfoconfig!DelApp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除应用信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appinfoconfig!EditApp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id，appId，secert，callbackurl，apptime，appname，isopen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id，应用id，appsecret，backurl，操作日期，应用名称，状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appinfoconfig!SearchAppName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pagesize，pageindex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppName，pagesize，pageindex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用名称，每页的条数，第几页</t>
+    <t>limit!getLimitByRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取角色所对应的权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleid，appname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID，应用名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit!getRoleList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取应用对应的角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存角色以及对应的权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleid，roleName，privs，appsecretId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色id，应用名称，权限，应用id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit!saveRolebyApp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit!delRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2294,10 +2378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:D88"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B104" sqref="B104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2657,7 +2741,7 @@
         <v>30</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>24</v>
@@ -3605,7 +3689,7 @@
         <v>344</v>
       </c>
       <c r="B75" s="44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>343</v>
@@ -3636,7 +3720,7 @@
         <v>348</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="4"/>
@@ -3644,7 +3728,7 @@
     </row>
     <row r="78" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="43" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="B78" s="44" t="s">
         <v>352</v>
@@ -3667,10 +3751,10 @@
         <v>351</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D79" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="4"/>
@@ -3678,16 +3762,16 @@
     </row>
     <row r="80" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B80" s="44" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D80" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="4"/>
@@ -3695,16 +3779,16 @@
     </row>
     <row r="81" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="B81" s="44" t="s">
+        <v>392</v>
+      </c>
+      <c r="C81" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="B81" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>360</v>
-      </c>
       <c r="D81" s="45" t="s">
-        <v>372</v>
+        <v>391</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="4"/>
@@ -3712,10 +3796,10 @@
     </row>
     <row r="82" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="43" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="45"/>
@@ -3725,16 +3809,16 @@
     </row>
     <row r="83" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="43" t="s">
-        <v>370</v>
+        <v>396</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="D83" s="45" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="4"/>
@@ -3742,31 +3826,33 @@
     </row>
     <row r="84" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="43" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="B84" s="44" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="D84" s="45"/>
+        <v>401</v>
+      </c>
+      <c r="D84" s="45" t="s">
+        <v>402</v>
+      </c>
       <c r="E84" s="12"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
     </row>
     <row r="85" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="43" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="B85" s="44" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="D85" s="45" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="4"/>
@@ -3774,16 +3860,16 @@
     </row>
     <row r="86" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="43" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="B86" s="44" t="s">
-        <v>381</v>
+        <v>407</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="D86" s="45" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="E86" s="12"/>
       <c r="F86" s="4"/>
@@ -3791,32 +3877,153 @@
     </row>
     <row r="87" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="43" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="B87" s="44" t="s">
-        <v>385</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="D87" s="45" t="s">
-        <v>389</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="45"/>
       <c r="E87" s="12"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="46" t="s">
+    <row r="88" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="B88" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="D88" s="45" t="s">
+        <v>383</v>
+      </c>
+      <c r="E88" s="12"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+    </row>
+    <row r="89" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="B89" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="D89" s="45" t="s">
+        <v>385</v>
+      </c>
+      <c r="E89" s="12"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+    </row>
+    <row r="90" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="B90" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D90" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="E90" s="12"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="43" t="s">
+        <v>377</v>
+      </c>
+      <c r="B91" s="44" t="s">
+        <v>376</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="D91" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="E91" s="12"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+    </row>
+    <row r="92" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="43" t="s">
+        <v>381</v>
+      </c>
+      <c r="B92" s="44" t="s">
+        <v>380</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="D92" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="E92" s="12"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="B93" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="C93" s="12"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+    </row>
+    <row r="94" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="43"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+    </row>
+    <row r="95" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="43"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+    </row>
+    <row r="96" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="43"/>
+      <c r="B96" s="44"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="45"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="46"/>
-      <c r="C88" s="46"/>
-      <c r="D88" s="46"/>
+      <c r="B97" s="46"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A97:D97"/>
     <mergeCell ref="A69:C69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/doc/接口协议.xlsx
+++ b/doc/接口协议.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17870"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="825" windowWidth="14805" windowHeight="7290"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="392">
   <si>
     <t>请求url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1531,14 +1531,22 @@
   </si>
   <si>
     <t>应用名称，每页的条数，第几页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注册组织</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mulorgan!registOrgan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2016,7 +2024,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2049,26 +2057,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2101,23 +2092,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2294,13 +2268,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G88"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:D88"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="34.875" customWidth="1"/>
     <col min="2" max="2" width="73.875" customWidth="1"/>
@@ -2311,7 +2285,7 @@
     <col min="7" max="7" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2330,7 +2304,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -2351,7 +2325,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="6" t="s">
         <v>293</v>
       </c>
@@ -2366,7 +2340,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="18" customHeight="1">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2389,7 +2363,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="6" t="s">
         <v>110</v>
       </c>
@@ -2410,7 +2384,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -2425,7 +2399,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -2438,7 +2412,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="6" t="s">
         <v>230</v>
       </c>
@@ -2459,7 +2433,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7">
       <c r="A9" s="6" t="s">
         <v>231</v>
       </c>
@@ -2474,7 +2448,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -2489,7 +2463,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" s="15" customFormat="1">
       <c r="A11" s="23" t="s">
         <v>278</v>
       </c>
@@ -2506,7 +2480,7 @@
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" s="15" customFormat="1">
       <c r="A12" s="23" t="s">
         <v>279</v>
       </c>
@@ -2521,7 +2495,7 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="6" t="s">
         <v>234</v>
       </c>
@@ -2540,7 +2514,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7">
       <c r="A14" s="6" t="s">
         <v>236</v>
       </c>
@@ -2557,7 +2531,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
@@ -2578,7 +2552,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" s="6" t="s">
         <v>282</v>
       </c>
@@ -2595,7 +2569,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="6" t="s">
         <v>101</v>
       </c>
@@ -2616,7 +2590,7 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="6" t="s">
         <v>302</v>
       </c>
@@ -2631,7 +2605,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
@@ -2652,7 +2626,7 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7">
       <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
@@ -2673,7 +2647,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1">
       <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
@@ -2694,7 +2668,7 @@
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15" customHeight="1">
       <c r="A22" s="5" t="s">
         <v>244</v>
       </c>
@@ -2713,7 +2687,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7">
       <c r="A23" s="5" t="s">
         <v>40</v>
       </c>
@@ -2732,7 +2706,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7">
       <c r="A24" s="5" t="s">
         <v>44</v>
       </c>
@@ -2753,7 +2727,7 @@
       </c>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7">
       <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
@@ -2770,7 +2744,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -2779,7 +2753,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7">
       <c r="A27" s="5" t="s">
         <v>52</v>
       </c>
@@ -2798,7 +2772,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7">
       <c r="A28" s="5" t="s">
         <v>57</v>
       </c>
@@ -2817,7 +2791,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7">
       <c r="A29" s="5" t="s">
         <v>303</v>
       </c>
@@ -2836,7 +2810,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7">
       <c r="A30" s="5" t="s">
         <v>63</v>
       </c>
@@ -2855,7 +2829,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7">
       <c r="A31" s="5" t="s">
         <v>64</v>
       </c>
@@ -2874,7 +2848,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1">
       <c r="A32" s="5" t="s">
         <v>65</v>
       </c>
@@ -2891,7 +2865,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7">
       <c r="A33" s="5" t="s">
         <v>66</v>
       </c>
@@ -2910,7 +2884,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7">
       <c r="A34" s="5" t="s">
         <v>67</v>
       </c>
@@ -2929,7 +2903,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7">
       <c r="A35" s="5" t="s">
         <v>203</v>
       </c>
@@ -2948,7 +2922,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7">
       <c r="A36" s="5" t="s">
         <v>204</v>
       </c>
@@ -2965,7 +2939,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7">
       <c r="A37" s="5" t="s">
         <v>71</v>
       </c>
@@ -2984,7 +2958,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7">
       <c r="A38" s="5" t="s">
         <v>197</v>
       </c>
@@ -3003,7 +2977,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7">
       <c r="A39" s="10" t="s">
         <v>83</v>
       </c>
@@ -3024,7 +2998,7 @@
       </c>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7">
       <c r="A40" s="5" t="s">
         <v>88</v>
       </c>
@@ -3043,7 +3017,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7">
       <c r="A41" s="10" t="s">
         <v>96</v>
       </c>
@@ -3064,7 +3038,7 @@
       </c>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7">
       <c r="A42" s="5" t="s">
         <v>109</v>
       </c>
@@ -3083,7 +3057,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7">
       <c r="A43" s="5" t="s">
         <v>207</v>
       </c>
@@ -3100,7 +3074,7 @@
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7">
       <c r="A44" s="5" t="s">
         <v>225</v>
       </c>
@@ -3119,7 +3093,7 @@
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7">
       <c r="A45" s="5" t="s">
         <v>224</v>
       </c>
@@ -3136,7 +3110,7 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7">
       <c r="A46" s="5" t="s">
         <v>256</v>
       </c>
@@ -3155,7 +3129,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7">
       <c r="A47" s="5" t="s">
         <v>260</v>
       </c>
@@ -3172,7 +3146,7 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7">
       <c r="A48" s="5" t="s">
         <v>297</v>
       </c>
@@ -3189,7 +3163,7 @@
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="12.75" customHeight="1">
       <c r="A49" s="10" t="s">
         <v>112</v>
       </c>
@@ -3208,7 +3182,7 @@
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="15" customHeight="1">
       <c r="A50" s="11" t="s">
         <v>265</v>
       </c>
@@ -3225,7 +3199,7 @@
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7">
       <c r="A51" s="11" t="s">
         <v>115</v>
       </c>
@@ -3244,7 +3218,7 @@
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7">
       <c r="A52" s="10" t="s">
         <v>114</v>
       </c>
@@ -3263,7 +3237,7 @@
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7">
       <c r="A53" s="10" t="s">
         <v>253</v>
       </c>
@@ -3280,7 +3254,7 @@
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7">
       <c r="A54" s="10" t="s">
         <v>254</v>
       </c>
@@ -3297,7 +3271,7 @@
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7">
       <c r="A55" s="10" t="s">
         <v>268</v>
       </c>
@@ -3314,7 +3288,7 @@
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7">
       <c r="A56" s="10" t="s">
         <v>287</v>
       </c>
@@ -3335,7 +3309,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" s="15" customFormat="1">
       <c r="A57" s="23" t="s">
         <v>288</v>
       </c>
@@ -3352,7 +3326,7 @@
       <c r="F57" s="23"/>
       <c r="G57" s="23"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7">
       <c r="A58" s="10" t="s">
         <v>134</v>
       </c>
@@ -3369,7 +3343,7 @@
       <c r="F58" s="9"/>
       <c r="G58" s="10"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7">
       <c r="A59" s="10" t="s">
         <v>137</v>
       </c>
@@ -3386,7 +3360,7 @@
       <c r="F59" s="9"/>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7">
       <c r="A60" s="10" t="s">
         <v>130</v>
       </c>
@@ -3405,7 +3379,7 @@
       <c r="F60" s="9"/>
       <c r="G60" s="10"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7">
       <c r="A61" s="10" t="s">
         <v>127</v>
       </c>
@@ -3422,7 +3396,7 @@
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7">
       <c r="A62" s="10"/>
       <c r="B62" s="9"/>
       <c r="C62" s="10"/>
@@ -3431,7 +3405,7 @@
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7">
       <c r="A63" s="10" t="s">
         <v>142</v>
       </c>
@@ -3450,7 +3424,7 @@
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7">
       <c r="A64" s="11" t="s">
         <v>143</v>
       </c>
@@ -3469,7 +3443,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7">
       <c r="A65" s="11"/>
       <c r="B65" s="22"/>
       <c r="C65" s="10"/>
@@ -3478,7 +3452,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7">
       <c r="A66" s="11" t="s">
         <v>309</v>
       </c>
@@ -3493,7 +3467,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7">
       <c r="A67" s="43"/>
       <c r="B67" s="4"/>
       <c r="C67" s="43"/>
@@ -3502,7 +3476,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7">
       <c r="A68" s="43"/>
       <c r="B68" s="4"/>
       <c r="C68" s="43"/>
@@ -3511,7 +3485,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" ht="44.25" customHeight="1">
       <c r="A69" s="47" t="s">
         <v>321</v>
       </c>
@@ -3522,7 +3496,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" ht="20.25" customHeight="1">
       <c r="A70" s="12" t="s">
         <v>322</v>
       </c>
@@ -3541,7 +3515,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" ht="20.25" customHeight="1">
       <c r="A71" s="12" t="s">
         <v>324</v>
       </c>
@@ -3558,7 +3532,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" ht="20.25" customHeight="1">
       <c r="A72" s="4" t="s">
         <v>337</v>
       </c>
@@ -3572,7 +3546,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" ht="20.25" customHeight="1">
       <c r="A73" s="4" t="s">
         <v>339</v>
       </c>
@@ -3586,7 +3560,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" ht="20.25" customHeight="1">
       <c r="A74" s="4" t="s">
         <v>342</v>
       </c>
@@ -3600,7 +3574,7 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" ht="20.25" customHeight="1">
       <c r="A75" s="4" t="s">
         <v>344</v>
       </c>
@@ -3614,7 +3588,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" ht="20.25" customHeight="1">
       <c r="A76" s="4" t="s">
         <v>347</v>
       </c>
@@ -3628,7 +3602,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7" ht="20.25" customHeight="1">
       <c r="A77" s="4" t="s">
         <v>349</v>
       </c>
@@ -3642,7 +3616,7 @@
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" ht="20.25" customHeight="1">
       <c r="A78" s="43" t="s">
         <v>355</v>
       </c>
@@ -3659,7 +3633,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" ht="20.25" customHeight="1">
       <c r="A79" s="43" t="s">
         <v>350</v>
       </c>
@@ -3676,7 +3650,7 @@
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" ht="20.25" customHeight="1">
       <c r="A80" s="43" t="s">
         <v>357</v>
       </c>
@@ -3693,7 +3667,7 @@
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" ht="20.25" customHeight="1">
       <c r="A81" s="43" t="s">
         <v>358</v>
       </c>
@@ -3710,7 +3684,7 @@
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" ht="20.25" customHeight="1">
       <c r="A82" s="43" t="s">
         <v>365</v>
       </c>
@@ -3723,7 +3697,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7" ht="20.25" customHeight="1">
       <c r="A83" s="43" t="s">
         <v>370</v>
       </c>
@@ -3740,7 +3714,7 @@
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7" ht="20.25" customHeight="1">
       <c r="A84" s="43" t="s">
         <v>375</v>
       </c>
@@ -3755,7 +3729,7 @@
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:7" ht="20.25" customHeight="1">
       <c r="A85" s="43" t="s">
         <v>378</v>
       </c>
@@ -3772,7 +3746,7 @@
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:7" ht="20.25" customHeight="1">
       <c r="A86" s="43" t="s">
         <v>382</v>
       </c>
@@ -3789,7 +3763,7 @@
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:7" ht="20.25" customHeight="1">
       <c r="A87" s="43" t="s">
         <v>386</v>
       </c>
@@ -3806,13 +3780,21 @@
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:7" ht="40.5" customHeight="1">
       <c r="A88" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B88" s="46"/>
       <c r="C88" s="46"/>
       <c r="D88" s="46"/>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>390</v>
+      </c>
+      <c r="B90" t="s">
+        <v>391</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3833,13 +3815,13 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="117.875" customWidth="1"/>
     <col min="2" max="2" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>162</v>
       </c>
@@ -3847,7 +3829,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>161</v>
       </c>
@@ -3855,7 +3837,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -3863,7 +3845,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>159</v>
       </c>
@@ -3871,7 +3853,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>158</v>
       </c>
@@ -3879,7 +3861,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>170</v>
       </c>
@@ -3887,7 +3869,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -3895,7 +3877,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -3903,7 +3885,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -3911,12 +3893,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -3924,7 +3906,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>152</v>
       </c>
@@ -3932,7 +3914,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
         <v>151</v>
       </c>
@@ -3940,7 +3922,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>150</v>
       </c>
@@ -3948,7 +3930,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -3956,7 +3938,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
         <v>148</v>
       </c>
@@ -3964,7 +3946,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>147</v>
       </c>
@@ -3972,7 +3954,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
         <v>146</v>
       </c>
@@ -3994,13 +3976,13 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="75.875" customWidth="1"/>
     <col min="2" max="2" width="51.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2">
       <c r="A1" s="19" t="s">
         <v>192</v>
       </c>
@@ -4008,7 +3990,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2">
       <c r="A2" s="20" t="s">
         <v>187</v>
       </c>
@@ -4016,12 +3998,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2">
       <c r="A3" s="20" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="20" t="s">
         <v>189</v>
       </c>
@@ -4029,42 +4011,42 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="20" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="20" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="16" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="20" t="s">
         <v>201</v>
       </c>
@@ -4072,12 +4054,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="20" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -4097,13 +4079,13 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:12" ht="33.75" customHeight="1" thickBot="1"/>
+    <row r="2" spans="2:12" ht="30.75" customHeight="1">
       <c r="B2" s="28" t="s">
         <v>315</v>
       </c>
@@ -4124,7 +4106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:12" ht="29.25" customHeight="1">
       <c r="B3" s="31">
         <v>4</v>
       </c>
@@ -4143,7 +4125,7 @@
       <c r="K3" s="35"/>
       <c r="L3" s="36"/>
     </row>
-    <row r="4" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:12" ht="35.25" customHeight="1">
       <c r="B4" s="37"/>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -4158,7 +4140,7 @@
       <c r="K4" s="38"/>
       <c r="L4" s="39"/>
     </row>
-    <row r="5" spans="2:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:12" ht="36.75" customHeight="1">
       <c r="B5" s="40"/>
       <c r="C5" s="27">
         <v>2</v>
@@ -4175,7 +4157,7 @@
       <c r="K5" s="35"/>
       <c r="L5" s="36"/>
     </row>
-    <row r="6" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" ht="42" customHeight="1">
       <c r="B6" s="37"/>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
@@ -4192,7 +4174,7 @@
       <c r="K6" s="38"/>
       <c r="L6" s="39"/>
     </row>
-    <row r="7" spans="2:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" ht="32.25" customHeight="1">
       <c r="B7" s="31"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -4207,7 +4189,7 @@
       <c r="K7" s="27"/>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="2:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:12" ht="41.25" customHeight="1">
       <c r="B8" s="37"/>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
@@ -4224,7 +4206,7 @@
       </c>
       <c r="L8" s="39"/>
     </row>
-    <row r="9" spans="2:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:12" ht="38.25" customHeight="1">
       <c r="B9" s="40"/>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
@@ -4241,7 +4223,7 @@
       <c r="K9" s="35"/>
       <c r="L9" s="36"/>
     </row>
-    <row r="10" spans="2:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:12" ht="39.75" customHeight="1">
       <c r="B10" s="37"/>
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
@@ -4256,7 +4238,7 @@
       <c r="K10" s="38"/>
       <c r="L10" s="39"/>
     </row>
-    <row r="11" spans="2:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:12" ht="41.25" customHeight="1">
       <c r="B11" s="31">
         <v>7</v>
       </c>
@@ -4275,7 +4257,7 @@
       </c>
       <c r="L11" s="36"/>
     </row>
-    <row r="12" spans="2:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:12" ht="44.25" customHeight="1" thickBot="1">
       <c r="B12" s="33">
         <v>10</v>
       </c>

--- a/doc/接口协议.xlsx
+++ b/doc/接口协议.xlsx
@@ -1470,123 +1470,143 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>应用ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appinfoconfig!EditApp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id，appId，secert，callbackurl，apptime，appname，isopen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id，应用id，appsecret，backurl，操作日期，应用名称，状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appinfoconfig!SearchAppName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pagesize，pageindex，userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每页的条数，第几页，用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appId，secert，callbackurl，appname，isopen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用id，应用密钥，链接，应用名，是否开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppName，pagesize，pageindex，userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用名称，每页的条数，第几页，用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appinfoconfig!getAppName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取应用名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限名称，每页的条数，第几页（当权限名称为空时，返回全部权限）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit!SearchPriv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取权限数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit!getCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit!getLimitByRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取角色所对应的权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleid，appname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID，应用名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit!getRoleList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取应用对应的角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存角色以及对应的权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit!saveRolebyApp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit!delRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>AppId</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>应用ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appinfoconfig!EditApp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id，appId，secert，callbackurl，apptime，appname，isopen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id，应用id，appsecret，backurl，操作日期，应用名称，状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appinfoconfig!SearchAppName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pagesize，pageindex，userid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每页的条数，第几页，用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appId，secert，callbackurl，appname，isopen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用id，应用密钥，链接，应用名，是否开启</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppName，pagesize，pageindex，userId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用名称，每页的条数，第几页，用户id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appinfoconfig!getAppName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取应用名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限名称，每页的条数，第几页（当权限名称为空时，返回全部权限）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit!SearchPriv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取权限数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit!getCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit!getLimitByRole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取角色所对应的权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roleid，appname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色ID，应用名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit!getRoleList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取应用对应的角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保存角色以及对应的权限</t>
+    <t>appId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1594,27 +1614,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>角色id，应用名称，权限，应用id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit!saveRolebyApp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit!delRole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>roleId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除角色</t>
+    <t>角色id（当id为-1时，为保存角色权限），应用名称，权限，应用id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2380,8 +2380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B104" sqref="B104"/>
+    <sheetView tabSelected="1" topLeftCell="C81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3728,7 +3728,7 @@
     </row>
     <row r="78" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="43" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B78" s="44" t="s">
         <v>352</v>
@@ -3782,13 +3782,13 @@
         <v>357</v>
       </c>
       <c r="B81" s="44" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>358</v>
       </c>
       <c r="D81" s="45" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="4"/>
@@ -3796,10 +3796,10 @@
     </row>
     <row r="82" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="43" t="s">
+        <v>392</v>
+      </c>
+      <c r="B82" s="44" t="s">
         <v>393</v>
-      </c>
-      <c r="B82" s="44" t="s">
-        <v>394</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="45"/>
@@ -3809,16 +3809,16 @@
     </row>
     <row r="83" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="43" t="s">
+        <v>395</v>
+      </c>
+      <c r="B83" s="44" t="s">
+        <v>394</v>
+      </c>
+      <c r="C83" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="B83" s="44" t="s">
-        <v>395</v>
-      </c>
-      <c r="C83" s="12" t="s">
+      <c r="D83" s="45" t="s">
         <v>397</v>
-      </c>
-      <c r="D83" s="45" t="s">
-        <v>398</v>
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="4"/>
@@ -3826,16 +3826,16 @@
     </row>
     <row r="84" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="43" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B84" s="44" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="D84" s="45" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="E84" s="12"/>
       <c r="F84" s="4"/>
@@ -3843,16 +3843,16 @@
     </row>
     <row r="85" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="43" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B85" s="44" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="D85" s="45" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="4"/>
@@ -3860,16 +3860,16 @@
     </row>
     <row r="86" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="43" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B86" s="44" t="s">
+        <v>402</v>
+      </c>
+      <c r="C86" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="C86" s="12" t="s">
-        <v>408</v>
-      </c>
       <c r="D86" s="45" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="E86" s="12"/>
       <c r="F86" s="4"/>
@@ -3896,10 +3896,10 @@
         <v>369</v>
       </c>
       <c r="C88" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="D88" s="45" t="s">
         <v>382</v>
-      </c>
-      <c r="D88" s="45" t="s">
-        <v>383</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="4"/>
@@ -3913,10 +3913,10 @@
         <v>370</v>
       </c>
       <c r="C89" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D89" s="45" t="s">
         <v>384</v>
-      </c>
-      <c r="D89" s="45" t="s">
-        <v>385</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="4"/>
@@ -3930,10 +3930,10 @@
         <v>372</v>
       </c>
       <c r="C90" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="D90" s="45" t="s">
         <v>374</v>
-      </c>
-      <c r="D90" s="45" t="s">
-        <v>375</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="4"/>
@@ -3941,16 +3941,16 @@
     </row>
     <row r="91" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="B91" s="44" t="s">
+        <v>375</v>
+      </c>
+      <c r="C91" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="B91" s="44" t="s">
-        <v>376</v>
-      </c>
-      <c r="C91" s="12" t="s">
+      <c r="D91" s="45" t="s">
         <v>378</v>
-      </c>
-      <c r="D91" s="45" t="s">
-        <v>379</v>
       </c>
       <c r="E91" s="12"/>
       <c r="F91" s="4"/>
@@ -3958,16 +3958,16 @@
     </row>
     <row r="92" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="43" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B92" s="44" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C92" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D92" s="45" t="s">
         <v>386</v>
-      </c>
-      <c r="D92" s="45" t="s">
-        <v>387</v>
       </c>
       <c r="E92" s="12"/>
       <c r="F92" s="4"/>
@@ -3975,10 +3975,10 @@
     </row>
     <row r="93" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="43" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B93" s="44" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C93" s="12"/>
       <c r="D93" s="45"/>

--- a/doc/接口协议.xlsx
+++ b/doc/接口协议.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17830"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="825" windowWidth="14805" windowHeight="7290"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="411">
   <si>
     <t>请求url</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1394,19 +1394,147 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>limit!EditPriv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name，pagesize，pageindex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限Id，父ID，权限名称，所属应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限名称，父ID，所属应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name，parentId，app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>privId,parentId,name,app</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取权限数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit!getCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reqAuthorizeTwo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visitToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;%=request.getContextPath() %&gt;/friend!delFriend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取应用信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appinfoconfig!getAppInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appinfoconfig!updateAppInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加应用信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appinfoconfig!DelApp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除应用信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appinfoconfig!EditApp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id，appId，secert，callbackurl，apptime，appname，isopen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id，应用id，appsecret，backurl，操作日期，应用名称，状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appinfoconfig!SearchAppName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pagesize，pageindex，userid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每页的条数，第几页，用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appId，secert，callbackurl，appname，isopen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用id，应用密钥，链接，应用名，是否开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AppName，pagesize，pageindex，userId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用名称，每页的条数，第几页，用户id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appinfoconfig!getAppName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取应用名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>删除权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>limit!EditPriv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索权限</t>
+    <t>权限名称，每页的条数，第几页（当权限名称为空时，返回全部权限）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1414,26 +1542,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name，pagesize，pageindex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限Id，父ID，权限名称，所属应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限名称，父ID，所属应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name，parentId，app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>privId,parentId,name,app</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>获取权限数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1442,51 +1550,47 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reqAuthorizeTwo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visitToken</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;%=request.getContextPath() %&gt;/friend!delFriend</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取应用信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appinfoconfig!getAppInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>权限名称，每页的条数，第几页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每页的条数，第几页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appinfoconfig!updateAppInfo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加应用信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appId，secert，callbackurl，apptime，appname，isopen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appinfoconfig!DelApp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除应用信息</t>
+    <t>limit!getLimitByRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取角色所对应的权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleid，appname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID，应用名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit!getRoleList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取应用对应的角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保存角色以及对应的权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit!saveRolebyApp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>limit!delRole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除角色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1494,59 +1598,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>应用ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appinfoconfig!EditApp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id，appId，secert，callbackurl，apptime，appname，isopen</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id，应用id，appsecret，backurl，操作日期，应用名称，状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>appinfoconfig!SearchAppName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>搜索应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pagesize，pageindex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AppName，pagesize，pageindex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用名称，每页的条数，第几页</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注册组织</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mulorgan!registOrgan</t>
+    <t>appId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>roleid，roleName，privs，appsecretId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色id（当id为-1时，为保存角色权限），应用名称，权限，应用id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2024,7 +2100,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2057,9 +2133,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2092,6 +2185,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2268,13 +2378,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="C81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="34.875" customWidth="1"/>
     <col min="2" max="2" width="73.875" customWidth="1"/>
@@ -2285,7 +2395,7 @@
     <col min="7" max="7" width="37.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -2304,7 +2414,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="1"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
@@ -2325,7 +2435,7 @@
       </c>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>293</v>
       </c>
@@ -2340,7 +2450,7 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
     </row>
-    <row r="4" spans="1:7" ht="18" customHeight="1">
+    <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
@@ -2363,7 +2473,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
         <v>110</v>
       </c>
@@ -2384,7 +2494,7 @@
       </c>
       <c r="G5" s="6"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -2399,7 +2509,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
         <v>17</v>
       </c>
@@ -2412,7 +2522,7 @@
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
         <v>230</v>
       </c>
@@ -2433,7 +2543,7 @@
       </c>
       <c r="G8" s="6"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>231</v>
       </c>
@@ -2448,7 +2558,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -2463,7 +2573,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="15" customFormat="1">
+    <row r="11" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="23" t="s">
         <v>278</v>
       </c>
@@ -2480,7 +2590,7 @@
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
     </row>
-    <row r="12" spans="1:7" s="15" customFormat="1">
+    <row r="12" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
         <v>279</v>
       </c>
@@ -2495,7 +2605,7 @@
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
         <v>234</v>
       </c>
@@ -2514,7 +2624,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
         <v>236</v>
       </c>
@@ -2531,7 +2641,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
         <v>20</v>
       </c>
@@ -2552,7 +2662,7 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="6" t="s">
         <v>282</v>
       </c>
@@ -2569,7 +2679,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="6" t="s">
         <v>101</v>
       </c>
@@ -2590,7 +2700,7 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="6" t="s">
         <v>302</v>
       </c>
@@ -2605,7 +2715,7 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
@@ -2626,12 +2736,12 @@
       </c>
       <c r="G19" s="6"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>24</v>
@@ -2647,7 +2757,7 @@
       </c>
       <c r="G20" s="6"/>
     </row>
-    <row r="21" spans="1:7" ht="12.75" customHeight="1">
+    <row r="21" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>34</v>
       </c>
@@ -2668,7 +2778,7 @@
       </c>
       <c r="G21" s="6"/>
     </row>
-    <row r="22" spans="1:7" ht="15" customHeight="1">
+    <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="s">
         <v>244</v>
       </c>
@@ -2687,7 +2797,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="6"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="s">
         <v>40</v>
       </c>
@@ -2706,7 +2816,7 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
         <v>44</v>
       </c>
@@ -2727,7 +2837,7 @@
       </c>
       <c r="G24" s="6"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="s">
         <v>47</v>
       </c>
@@ -2744,7 +2854,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -2753,7 +2863,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="s">
         <v>52</v>
       </c>
@@ -2772,7 +2882,7 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="s">
         <v>57</v>
       </c>
@@ -2791,7 +2901,7 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="s">
         <v>303</v>
       </c>
@@ -2810,7 +2920,7 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="s">
         <v>63</v>
       </c>
@@ -2829,7 +2939,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="s">
         <v>64</v>
       </c>
@@ -2848,7 +2958,7 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="s">
         <v>65</v>
       </c>
@@ -2865,7 +2975,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="s">
         <v>66</v>
       </c>
@@ -2884,7 +2994,7 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="s">
         <v>67</v>
       </c>
@@ -2903,7 +3013,7 @@
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="s">
         <v>203</v>
       </c>
@@ -2922,7 +3032,7 @@
       <c r="F35" s="9"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="s">
         <v>204</v>
       </c>
@@ -2939,7 +3049,7 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="s">
         <v>71</v>
       </c>
@@ -2958,7 +3068,7 @@
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="s">
         <v>197</v>
       </c>
@@ -2977,7 +3087,7 @@
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A39" s="10" t="s">
         <v>83</v>
       </c>
@@ -2998,7 +3108,7 @@
       </c>
       <c r="G39" s="9"/>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="s">
         <v>88</v>
       </c>
@@ -3017,7 +3127,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A41" s="10" t="s">
         <v>96</v>
       </c>
@@ -3038,7 +3148,7 @@
       </c>
       <c r="G41" s="9"/>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="s">
         <v>109</v>
       </c>
@@ -3057,7 +3167,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="s">
         <v>207</v>
       </c>
@@ -3074,7 +3184,7 @@
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="s">
         <v>225</v>
       </c>
@@ -3093,7 +3203,7 @@
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="s">
         <v>224</v>
       </c>
@@ -3110,7 +3220,7 @@
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="s">
         <v>256</v>
       </c>
@@ -3129,7 +3239,7 @@
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="s">
         <v>260</v>
       </c>
@@ -3146,7 +3256,7 @@
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="s">
         <v>297</v>
       </c>
@@ -3163,7 +3273,7 @@
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
     </row>
-    <row r="49" spans="1:7" ht="12.75" customHeight="1">
+    <row r="49" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="10" t="s">
         <v>112</v>
       </c>
@@ -3182,7 +3292,7 @@
       <c r="F49" s="9"/>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="1:7" ht="15" customHeight="1">
+    <row r="50" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="11" t="s">
         <v>265</v>
       </c>
@@ -3199,7 +3309,7 @@
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A51" s="11" t="s">
         <v>115</v>
       </c>
@@ -3218,7 +3328,7 @@
       <c r="F51" s="13"/>
       <c r="G51" s="13"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A52" s="10" t="s">
         <v>114</v>
       </c>
@@ -3237,7 +3347,7 @@
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A53" s="10" t="s">
         <v>253</v>
       </c>
@@ -3254,7 +3364,7 @@
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A54" s="10" t="s">
         <v>254</v>
       </c>
@@ -3271,7 +3381,7 @@
       <c r="F54" s="9"/>
       <c r="G54" s="9"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="10" t="s">
         <v>268</v>
       </c>
@@ -3288,7 +3398,7 @@
       <c r="F55" s="9"/>
       <c r="G55" s="9"/>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="10" t="s">
         <v>287</v>
       </c>
@@ -3309,7 +3419,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="15" customFormat="1">
+    <row r="57" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A57" s="23" t="s">
         <v>288</v>
       </c>
@@ -3326,7 +3436,7 @@
       <c r="F57" s="23"/>
       <c r="G57" s="23"/>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="10" t="s">
         <v>134</v>
       </c>
@@ -3343,7 +3453,7 @@
       <c r="F58" s="9"/>
       <c r="G58" s="10"/>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="10" t="s">
         <v>137</v>
       </c>
@@ -3360,7 +3470,7 @@
       <c r="F59" s="9"/>
       <c r="G59" s="10"/>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="10" t="s">
         <v>130</v>
       </c>
@@ -3379,7 +3489,7 @@
       <c r="F60" s="9"/>
       <c r="G60" s="10"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="10" t="s">
         <v>127</v>
       </c>
@@ -3396,7 +3506,7 @@
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="10"/>
       <c r="B62" s="9"/>
       <c r="C62" s="10"/>
@@ -3405,7 +3515,7 @@
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="10" t="s">
         <v>142</v>
       </c>
@@ -3424,7 +3534,7 @@
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="11" t="s">
         <v>143</v>
       </c>
@@ -3443,7 +3553,7 @@
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="11"/>
       <c r="B65" s="22"/>
       <c r="C65" s="10"/>
@@ -3452,7 +3562,7 @@
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="11" t="s">
         <v>309</v>
       </c>
@@ -3467,7 +3577,7 @@
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="43"/>
       <c r="B67" s="4"/>
       <c r="C67" s="43"/>
@@ -3476,7 +3586,7 @@
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="43"/>
       <c r="B68" s="4"/>
       <c r="C68" s="43"/>
@@ -3485,7 +3595,7 @@
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
     </row>
-    <row r="69" spans="1:7" ht="44.25" customHeight="1">
+    <row r="69" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="47" t="s">
         <v>321</v>
       </c>
@@ -3496,7 +3606,7 @@
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
     </row>
-    <row r="70" spans="1:7" ht="20.25" customHeight="1">
+    <row r="70" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="12" t="s">
         <v>322</v>
       </c>
@@ -3515,7 +3625,7 @@
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
     </row>
-    <row r="71" spans="1:7" ht="20.25" customHeight="1">
+    <row r="71" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="12" t="s">
         <v>324</v>
       </c>
@@ -3532,7 +3642,7 @@
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
     </row>
-    <row r="72" spans="1:7" ht="20.25" customHeight="1">
+    <row r="72" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
         <v>337</v>
       </c>
@@ -3546,7 +3656,7 @@
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
     </row>
-    <row r="73" spans="1:7" ht="20.25" customHeight="1">
+    <row r="73" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="4" t="s">
         <v>339</v>
       </c>
@@ -3560,7 +3670,7 @@
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
     </row>
-    <row r="74" spans="1:7" ht="20.25" customHeight="1">
+    <row r="74" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
         <v>342</v>
       </c>
@@ -3574,12 +3684,12 @@
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
     </row>
-    <row r="75" spans="1:7" ht="20.25" customHeight="1">
+    <row r="75" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
         <v>344</v>
       </c>
       <c r="B75" s="44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>343</v>
@@ -3588,7 +3698,7 @@
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
     </row>
-    <row r="76" spans="1:7" ht="20.25" customHeight="1">
+    <row r="76" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
         <v>347</v>
       </c>
@@ -3602,7 +3712,7 @@
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
     </row>
-    <row r="77" spans="1:7" ht="20.25" customHeight="1">
+    <row r="77" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
         <v>349</v>
       </c>
@@ -3610,15 +3720,15 @@
         <v>348</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
     </row>
-    <row r="78" spans="1:7" ht="20.25" customHeight="1">
+    <row r="78" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="43" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="B78" s="44" t="s">
         <v>352</v>
@@ -3633,7 +3743,7 @@
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
     </row>
-    <row r="79" spans="1:7" ht="20.25" customHeight="1">
+    <row r="79" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="43" t="s">
         <v>350</v>
       </c>
@@ -3641,55 +3751,55 @@
         <v>351</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D79" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
     </row>
-    <row r="80" spans="1:7" ht="20.25" customHeight="1">
+    <row r="80" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="43" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B80" s="44" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D80" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
     </row>
-    <row r="81" spans="1:7" ht="20.25" customHeight="1">
+    <row r="81" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="43" t="s">
+        <v>357</v>
+      </c>
+      <c r="B81" s="44" t="s">
+        <v>391</v>
+      </c>
+      <c r="C81" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="B81" s="44" t="s">
-        <v>359</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>360</v>
-      </c>
       <c r="D81" s="45" t="s">
-        <v>372</v>
+        <v>390</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
     </row>
-    <row r="82" spans="1:7" ht="20.25" customHeight="1">
+    <row r="82" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="43" t="s">
-        <v>365</v>
+        <v>392</v>
       </c>
       <c r="B82" s="44" t="s">
-        <v>366</v>
+        <v>393</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="45"/>
@@ -3697,108 +3807,223 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="1:7" ht="20.25" customHeight="1">
+    <row r="83" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="43" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="B83" s="44" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="D83" s="45" t="s">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
     </row>
-    <row r="84" spans="1:7" ht="20.25" customHeight="1">
+    <row r="84" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="43" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="B84" s="44" t="s">
-        <v>374</v>
+        <v>398</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>376</v>
-      </c>
-      <c r="D84" s="45"/>
+        <v>406</v>
+      </c>
+      <c r="D84" s="45" t="s">
+        <v>408</v>
+      </c>
       <c r="E84" s="12"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
     </row>
-    <row r="85" spans="1:7" ht="20.25" customHeight="1">
+    <row r="85" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="43" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="B85" s="44" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="D85" s="45" t="s">
-        <v>380</v>
+        <v>410</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
     </row>
-    <row r="86" spans="1:7" ht="20.25" customHeight="1">
+    <row r="86" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="43" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="B86" s="44" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="D86" s="45" t="s">
-        <v>384</v>
+        <v>403</v>
       </c>
       <c r="E86" s="12"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
     </row>
-    <row r="87" spans="1:7" ht="20.25" customHeight="1">
+    <row r="87" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="43" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="B87" s="44" t="s">
-        <v>385</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="D87" s="45" t="s">
-        <v>389</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="45"/>
       <c r="E87" s="12"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
     </row>
-    <row r="88" spans="1:7" ht="40.5" customHeight="1">
-      <c r="A88" s="46" t="s">
+    <row r="88" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="43" t="s">
+        <v>368</v>
+      </c>
+      <c r="B88" s="44" t="s">
+        <v>369</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="D88" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="E88" s="12"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+    </row>
+    <row r="89" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="B89" s="44" t="s">
+        <v>370</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D89" s="45" t="s">
+        <v>384</v>
+      </c>
+      <c r="E89" s="12"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+    </row>
+    <row r="90" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="43" t="s">
+        <v>373</v>
+      </c>
+      <c r="B90" s="44" t="s">
+        <v>372</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="D90" s="45" t="s">
+        <v>374</v>
+      </c>
+      <c r="E90" s="12"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="B91" s="44" t="s">
+        <v>375</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D91" s="45" t="s">
+        <v>378</v>
+      </c>
+      <c r="E91" s="12"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+    </row>
+    <row r="92" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="B92" s="44" t="s">
+        <v>379</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="D92" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="E92" s="12"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="43" t="s">
+        <v>388</v>
+      </c>
+      <c r="B93" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="C93" s="12"/>
+      <c r="D93" s="45"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+    </row>
+    <row r="94" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="43"/>
+      <c r="B94" s="44"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="45"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+    </row>
+    <row r="95" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="43"/>
+      <c r="B95" s="44"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="45"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+    </row>
+    <row r="96" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="43"/>
+      <c r="B96" s="44"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="45"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B88" s="46"/>
-      <c r="C88" s="46"/>
-      <c r="D88" s="46"/>
-    </row>
-    <row r="90" spans="1:7">
-      <c r="A90" t="s">
-        <v>390</v>
-      </c>
-      <c r="B90" t="s">
-        <v>391</v>
-      </c>
+      <c r="B97" s="46"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A88:D88"/>
+    <mergeCell ref="A97:D97"/>
     <mergeCell ref="A69:C69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3815,13 +4040,13 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="117.875" customWidth="1"/>
     <col min="2" max="2" width="37.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>162</v>
       </c>
@@ -3829,7 +4054,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>161</v>
       </c>
@@ -3837,7 +4062,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>160</v>
       </c>
@@ -3845,7 +4070,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>159</v>
       </c>
@@ -3853,7 +4078,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>158</v>
       </c>
@@ -3861,7 +4086,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>170</v>
       </c>
@@ -3869,7 +4094,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -3877,7 +4102,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>156</v>
       </c>
@@ -3885,7 +4110,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>155</v>
       </c>
@@ -3893,12 +4118,12 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>153</v>
       </c>
@@ -3906,7 +4131,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>152</v>
       </c>
@@ -3914,7 +4139,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>151</v>
       </c>
@@ -3922,7 +4147,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>150</v>
       </c>
@@ -3930,7 +4155,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>149</v>
       </c>
@@ -3938,7 +4163,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>148</v>
       </c>
@@ -3946,7 +4171,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>147</v>
       </c>
@@ -3954,7 +4179,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>146</v>
       </c>
@@ -3976,13 +4201,13 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="75.875" customWidth="1"/>
     <col min="2" max="2" width="51.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>192</v>
       </c>
@@ -3990,7 +4215,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="20" t="s">
         <v>187</v>
       </c>
@@ -3998,12 +4223,12 @@
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="20" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="20" t="s">
         <v>189</v>
       </c>
@@ -4011,42 +4236,42 @@
         <v>214</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="20" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" s="20" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" s="16" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" s="20" t="s">
         <v>201</v>
       </c>
@@ -4054,12 +4279,12 @@
         <v>215</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="20" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -4079,13 +4304,13 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="33.75" customHeight="1" thickBot="1"/>
-    <row r="2" spans="2:12" ht="30.75" customHeight="1">
+    <row r="1" spans="2:12" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" s="28" t="s">
         <v>315</v>
       </c>
@@ -4106,7 +4331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="2:12" ht="29.25" customHeight="1">
+    <row r="3" spans="2:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="31">
         <v>4</v>
       </c>
@@ -4125,7 +4350,7 @@
       <c r="K3" s="35"/>
       <c r="L3" s="36"/>
     </row>
-    <row r="4" spans="2:12" ht="35.25" customHeight="1">
+    <row r="4" spans="2:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="37"/>
       <c r="C4" s="38"/>
       <c r="D4" s="38"/>
@@ -4140,7 +4365,7 @@
       <c r="K4" s="38"/>
       <c r="L4" s="39"/>
     </row>
-    <row r="5" spans="2:12" ht="36.75" customHeight="1">
+    <row r="5" spans="2:12" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="40"/>
       <c r="C5" s="27">
         <v>2</v>
@@ -4157,7 +4382,7 @@
       <c r="K5" s="35"/>
       <c r="L5" s="36"/>
     </row>
-    <row r="6" spans="2:12" ht="42" customHeight="1">
+    <row r="6" spans="2:12" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="37"/>
       <c r="C6" s="38"/>
       <c r="D6" s="38"/>
@@ -4174,7 +4399,7 @@
       <c r="K6" s="38"/>
       <c r="L6" s="39"/>
     </row>
-    <row r="7" spans="2:12" ht="32.25" customHeight="1">
+    <row r="7" spans="2:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="31"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -4189,7 +4414,7 @@
       <c r="K7" s="27"/>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="2:12" ht="41.25" customHeight="1">
+    <row r="8" spans="2:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="37"/>
       <c r="C8" s="38"/>
       <c r="D8" s="38"/>
@@ -4206,7 +4431,7 @@
       </c>
       <c r="L8" s="39"/>
     </row>
-    <row r="9" spans="2:12" ht="38.25" customHeight="1">
+    <row r="9" spans="2:12" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="40"/>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
@@ -4223,7 +4448,7 @@
       <c r="K9" s="35"/>
       <c r="L9" s="36"/>
     </row>
-    <row r="10" spans="2:12" ht="39.75" customHeight="1">
+    <row r="10" spans="2:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="37"/>
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
@@ -4238,7 +4463,7 @@
       <c r="K10" s="38"/>
       <c r="L10" s="39"/>
     </row>
-    <row r="11" spans="2:12" ht="41.25" customHeight="1">
+    <row r="11" spans="2:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="31">
         <v>7</v>
       </c>
@@ -4257,7 +4482,7 @@
       </c>
       <c r="L11" s="36"/>
     </row>
-    <row r="12" spans="2:12" ht="44.25" customHeight="1" thickBot="1">
+    <row r="12" spans="2:12" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="33">
         <v>10</v>
       </c>
